--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>技能</t>
-  </si>
-  <si>
-    <t>类型描述</t>
   </si>
   <si>
     <t>战士</t>
@@ -87,22 +84,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,21 +121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,24 +157,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,45 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,15 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,17 +499,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,16 +547,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,115 +565,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,15 +1035,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,9 +1061,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1074,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1086,7 +1080,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1094,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1106,7 +1100,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1114,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1126,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1134,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1146,7 +1140,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1154,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1166,7 +1160,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,12 @@
     <t>技能</t>
   </si>
   <si>
+    <t>基础hp</t>
+  </si>
+  <si>
+    <t>基础mp</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>5,6</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>11,13,3</t>
   </si>
 </sst>
 </file>
@@ -83,8 +95,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,22 +118,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +149,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,8 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,24 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,43 +196,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -226,6 +231,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,49 +248,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,133 +392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,11 +442,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,21 +491,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -480,6 +501,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,29 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,145 +547,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,15 +1047,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,13 +1074,19 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1080,15 +1098,21 @@
         <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1100,15 +1124,21 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1120,15 +1150,21 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1140,15 +1176,21 @@
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1160,7 +1202,39 @@
         <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -28,7 +28,22 @@
     <t>法术攻击</t>
   </si>
   <si>
-    <t>防御力</t>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术防御</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>命中</t>
   </si>
   <si>
     <t>技能</t>
@@ -38,6 +53,9 @@
   </si>
   <si>
     <t>基础mp</t>
+  </si>
+  <si>
+    <t>智力</t>
   </si>
   <si>
     <t>战士</t>
@@ -81,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,37 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,24 +144,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,47 +180,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +220,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,31 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,151 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +457,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,24 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,32 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +517,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,31 +577,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,100 +610,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,15 +1065,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,13 +1098,31 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1097,22 +1133,40 @@
       <c r="E2">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="F2">
+        <v>80</v>
       </c>
       <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>100</v>
       </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1123,22 +1177,40 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="F3">
+        <v>20</v>
       </c>
       <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>101</v>
       </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1147,24 +1219,42 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
       </c>
       <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>1000</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>102</v>
       </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1175,22 +1265,40 @@
       <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
+      <c r="F5">
+        <v>40</v>
       </c>
       <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>103</v>
       </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1201,22 +1309,40 @@
       <c r="E6">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6">
+        <v>50</v>
       </c>
       <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>104</v>
       </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1227,14 +1353,32 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
+      <c r="F7">
+        <v>100</v>
       </c>
       <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7">
         <v>1000</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>105</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -22,40 +22,16 @@
     <t>职业名称</t>
   </si>
   <si>
-    <t>物理攻击</t>
-  </si>
-  <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>物理防御</t>
-  </si>
-  <si>
-    <t>法术防御</t>
-  </si>
-  <si>
-    <t>耐力</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>精神</t>
-  </si>
-  <si>
-    <t>命中</t>
+    <t>基础hp</t>
+  </si>
+  <si>
+    <t>基础mp</t>
   </si>
   <si>
     <t>技能</t>
   </si>
   <si>
-    <t>基础hp</t>
-  </si>
-  <si>
-    <t>基础mp</t>
-  </si>
-  <si>
-    <t>智力</t>
+    <t>增益属性</t>
   </si>
   <si>
     <t>战士</t>
@@ -64,7 +40,10 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>牧师</t>
+    <t>[{"id":1,"value":110},{"id":2,"value":150},{"id":3,"value":110},{"id":4,"value":150},{"id":5,"value":110},{"id":6,"value":150},{"id":7,"value":110},{"id":8,"value":150},{"id":9,"value":110},{"id":10,"value":150},{"id":11,"value":110},{"id":12,"value":150},{"id":13,"value":110},{"id":14,"value":150},{"id":15,"value":110}]</t>
+  </si>
+  <si>
+    <t>射手</t>
   </si>
   <si>
     <t>11,12</t>
@@ -76,19 +55,19 @@
     <t>3,4,7</t>
   </si>
   <si>
-    <t>猎人</t>
+    <t>辅助</t>
   </si>
   <si>
     <t>8,10</t>
   </si>
   <si>
-    <t>死亡骑士</t>
+    <t>刺客</t>
   </si>
   <si>
     <t>5,6</t>
   </si>
   <si>
-    <t>辅助</t>
+    <t>坦克</t>
   </si>
   <si>
     <t>11,13,3</t>
@@ -99,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +89,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,42 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -180,24 +130,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +169,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,55 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,127 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +463,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,6 +483,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,41 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,15 +1044,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="197.333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,293 +1074,125 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>70</v>
-      </c>
-      <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-      <c r="M2">
         <v>100</v>
       </c>
-      <c r="N2">
-        <v>50</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>80</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3">
         <v>101</v>
       </c>
-      <c r="N3">
-        <v>80</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
         <v>102</v>
       </c>
-      <c r="N4">
-        <v>70</v>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5">
         <v>103</v>
       </c>
-      <c r="N5">
-        <v>60</v>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6">
         <v>104</v>
       </c>
-      <c r="N6">
-        <v>40</v>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7">
-        <v>1000</v>
-      </c>
-      <c r="M7">
         <v>105</v>
       </c>
-      <c r="N7">
-        <v>50</v>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -37,40 +37,46 @@
     <t>战士</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>[{"id":1,"value":110},{"id":2,"value":150},{"id":3,"value":110},{"id":4,"value":150},{"id":5,"value":110},{"id":6,"value":150},{"id":7,"value":110},{"id":8,"value":150},{"id":9,"value":110},{"id":10,"value":150},{"id":11,"value":110},{"id":12,"value":150},{"id":13,"value":110},{"id":14,"value":150},{"id":15,"value":110}]</t>
+    <t>1,2,16</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":165},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":100},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":15},{"id":12,"value":0},{"id":13,"value":45},{"id":14,"value":50},{"id":15,"value":13}]</t>
   </si>
   <si>
     <t>射手</t>
   </si>
   <si>
-    <t>11,12</t>
+    <t>11,12,16</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":180},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":80},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":30},{"id":12,"value":0},{"id":13,"value":50},{"id":14,"value":50},{"id":15,"value":15}]</t>
   </si>
   <si>
     <t>法师</t>
   </si>
   <si>
-    <t>3,4,7</t>
-  </si>
-  <si>
-    <t>辅助</t>
-  </si>
-  <si>
-    <t>8,10</t>
+    <t>3,4,7,16</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":160},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":90},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":0},{"id":12,"value":0},{"id":13,"value":50},{"id":14,"value":50},{"id":15,"value":18}]</t>
   </si>
   <si>
     <t>刺客</t>
   </si>
   <si>
-    <t>5,6</t>
+    <t>5,6,16</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":175},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":85},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":20},{"id":12,"value":0},{"id":13,"value":60},{"id":14,"value":50},{"id":15,"value":16}]</t>
   </si>
   <si>
     <t>坦克</t>
   </si>
   <si>
-    <t>11,13,3</t>
+    <t>11,13,3,16</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":155},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":110},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":10},{"id":12,"value":0},{"id":13,"value":40},{"id":14,"value":50},{"id":15,"value":10}]</t>
   </si>
 </sst>
 </file>
@@ -92,15 +98,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,14 +138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -130,8 +145,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,9 +167,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,17 +205,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,45 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,85 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,55 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,61 +449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +480,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -544,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +700,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,15 +1053,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="197.333333333333" customWidth="1"/>
+    <col min="6" max="6" width="254.972222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1083,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1103,16 +1112,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1120,19 +1129,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1140,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>450</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1160,39 +1169,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -37,13 +37,13 @@
     <t>战士</t>
   </si>
   <si>
-    <t>1,2,16</t>
+    <t>1,2,16,32</t>
   </si>
   <si>
     <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":165},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":100},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":15},{"id":12,"value":0},{"id":13,"value":45},{"id":14,"value":50},{"id":15,"value":13}]</t>
   </si>
   <si>
-    <t>射手</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>11,12,16</t>
@@ -55,16 +55,16 @@
     <t>法师</t>
   </si>
   <si>
-    <t>3,4,7,16</t>
+    <t>3,4,6,7,16</t>
   </si>
   <si>
     <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":160},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":90},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":0},{"id":12,"value":0},{"id":13,"value":50},{"id":14,"value":50},{"id":15,"value":18}]</t>
   </si>
   <si>
-    <t>刺客</t>
-  </si>
-  <si>
-    <t>5,6,16</t>
+    <t>召唤师</t>
+  </si>
+  <si>
+    <t>5,6,16,10</t>
   </si>
   <si>
     <t>[{"id":1,"value":0},{"id":2,"value":0},{"id":3,"value":175},{"id":4,"value":0},{"id":5,"value":0},{"id":6,"value":0},{"id":7,"value":85},{"id":8,"value":50},{"id":9,"value":0},{"id":10,"value":0},{"id":11,"value":20},{"id":12,"value":0},{"id":13,"value":60},{"id":14,"value":50},{"id":15,"value":16}]</t>
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,32 +100,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,6 +122,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -145,46 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -214,15 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,19 +269,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,43 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,97 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,26 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +460,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -491,15 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +531,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,7 +550,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/roleType.xlsx
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,18 +99,124 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,112 +229,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,80 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
